--- a/input.xlsx
+++ b/input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\recruitment\Ankit Sonavane MT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\training\project_pandas_data_operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Sl No</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Term</t>
+  </si>
+  <si>
+    <t>A12DHFEJR2</t>
+  </si>
+  <si>
+    <t>12345678901</t>
   </si>
 </sst>
 </file>
@@ -171,11 +177,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,7 +466,7 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,26 +499,26 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -596,7 +602,7 @@
       <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>1000</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -605,7 +611,7 @@
       <c r="K3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>-375</v>
       </c>
       <c r="M3" s="3"/>
@@ -641,7 +647,7 @@
       <c r="H4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>50000</v>
       </c>
       <c r="J4" s="3"/>
@@ -655,14 +661,18 @@
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="1">
         <f t="shared" ref="A5:A52" si="0">IF(SUMPRODUCT(--(B5:R5&lt;&gt;""))=0,"",A4+1)</f>
-        <v/>
-      </c>
-      <c r="B5" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
